--- a/base/sequences/inferred_sequence_1.xlsx
+++ b/base/sequences/inferred_sequence_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-website\base\sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC31065-8450-4C0B-A3A2-1DB107AFC536}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFEB135-ADC1-4799-A2F9-EFCF04BECF8A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -524,6 +524,51 @@
   <si>
     <t>IGHV1-69D*01_003</t>
   </si>
+  <si>
+    <t>Acknowledgements</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>institution_name</t>
+  </si>
+  <si>
+    <t>ORCID_id</t>
+  </si>
+  <si>
+    <t>Explanation of fields</t>
+  </si>
+  <si>
+    <t>Full name of individual</t>
+  </si>
+  <si>
+    <t>Individual's department and institution name</t>
+  </si>
+  <si>
+    <t>Individual's ORCID Id, if available</t>
+  </si>
+  <si>
+    <t>Mel Smyth</t>
+  </si>
+  <si>
+    <t>University of Kent</t>
+  </si>
+  <si>
+    <t>Griff Jones</t>
+  </si>
+  <si>
+    <t>RMIT University</t>
+  </si>
+  <si>
+    <t>Anthony Minghella</t>
+  </si>
+  <si>
+    <t>University of Texas MD Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>0000-0003-1912-3935</t>
+  </si>
 </sst>
 </file>
 
@@ -575,7 +620,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -763,11 +808,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -794,6 +850,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D54"/>
+  <dimension ref="A3:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,6 +1653,169 @@
         <v>111</v>
       </c>
     </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1604,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/base/sequences/inferred_sequence_1.xlsx
+++ b/base/sequences/inferred_sequence_1.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\AIRR\gldb-website\base\sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFEB135-ADC1-4799-A2F9-EFCF04BECF8A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA85C6E-E898-455F-894E-F0CE2F5D4E7C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence" sheetId="1" r:id="rId1"/>
-    <sheet name="Submissions" sheetId="3" r:id="rId2"/>
-    <sheet name="Meetings" sheetId="4" r:id="rId3"/>
+    <sheet name="Submissions" sheetId="2" r:id="rId2"/>
+    <sheet name="Meetings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -33,6 +33,14 @@
     <t>Please complete details on all tabs.</t>
   </si>
   <si>
+    <t>Note on Sequence Co-ordinates</t>
+  </si>
+  <si>
+    <t>Nucleotides within the inferred sequence are numbered from 1 - that is, a sequence of length n 
+should be numbered from 1 to n. These numbers are used as co-ordinates to identify the start 
+and end nucleotide of defined regions.</t>
+  </si>
+  <si>
     <t>Schema Version</t>
   </si>
   <si>
@@ -75,7 +83,8 @@
     <t>release_version</t>
   </si>
   <si>
-    <t>Version number of this record, allocated automatically</t>
+    <t>Version number of this record, updated whenever a revised
+version is published</t>
   </si>
   <si>
     <t>release_description</t>
@@ -94,7 +103,7 @@
     <t>pub_ids</t>
   </si>
   <si>
-    <t>Peer-reviewed publications describing this dataset</t>
+    <t>Peer-reviewed publications describing this inference</t>
   </si>
   <si>
     <t>organism</t>
@@ -188,156 +197,6 @@
 in for V-gene sequences</t>
   </si>
   <si>
-    <t>codon_frame</t>
-  </si>
-  <si>
-    <t>utr_5_prime_start</t>
-  </si>
-  <si>
-    <t>Start co-ordinate of 5 prime UTR</t>
-  </si>
-  <si>
-    <t>utr_5_prime_end</t>
-  </si>
-  <si>
-    <t>End co-ordinate of 5 prime UTR</t>
-  </si>
-  <si>
-    <t>l_region_start</t>
-  </si>
-  <si>
-    <t>Start co-ordinate of L region</t>
-  </si>
-  <si>
-    <t>l_region_end</t>
-  </si>
-  <si>
-    <t>End co-ordinate of L region</t>
-  </si>
-  <si>
-    <t>v_rs_start</t>
-  </si>
-  <si>
-    <t>Start co-ordinate of V recombination site (V-genes only)</t>
-  </si>
-  <si>
-    <t>v_rs_end</t>
-  </si>
-  <si>
-    <t>End co-ordinate of V recombination site (V-genes only)</t>
-  </si>
-  <si>
-    <t>d_rs_3_prime_start</t>
-  </si>
-  <si>
-    <t>Start co-ordinate of 3 prime D recombination site (D-genes
-only)</t>
-  </si>
-  <si>
-    <t>d_rs_3_prime_end</t>
-  </si>
-  <si>
-    <t>End co-ordinate of 3 prime D recombination site (D-genes
-only)</t>
-  </si>
-  <si>
-    <t>d_rs_5_prime_start</t>
-  </si>
-  <si>
-    <t>Start co-ordinate of 5 prime D recombination site (D-genes
-only)</t>
-  </si>
-  <si>
-    <t>d_rs_5_prime_end</t>
-  </si>
-  <si>
-    <t>End co-ordinate of 5 prime D recombination site (D-genes
-only)</t>
-  </si>
-  <si>
-    <t>j_rs_start</t>
-  </si>
-  <si>
-    <t>Start co-ordinate of J recombination site (J-genes only)</t>
-  </si>
-  <si>
-    <t>j_rs_end</t>
-  </si>
-  <si>
-    <t>End co-ordinate of J recombination site (J-genes only)</t>
-  </si>
-  <si>
-    <t>paralogs</t>
-  </si>
-  <si>
-    <t>Canonical names of 0 or more paralogs</t>
-  </si>
-  <si>
-    <t>observed_sequences</t>
-  </si>
-  <si>
-    <t>IDs of 0 or more Observed_Sequence records</t>
-  </si>
-  <si>
-    <t>genomic_sequences</t>
-  </si>
-  <si>
-    <t>IDs of 0 or more Genomic_Sequence records</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Submissions</t>
-  </si>
-  <si>
-    <t>Please provide details of submissions providing evidence for
-the inferred sequence</t>
-  </si>
-  <si>
-    <t>Submission ID</t>
-  </si>
-  <si>
-    <t>Sequence ID (in submission)</t>
-  </si>
-  <si>
-    <t>Meetings</t>
-  </si>
-  <si>
-    <t>Please provide details of IARC meetings at which this allele
-was reviewed</t>
-  </si>
-  <si>
-    <t>Meeting Number</t>
-  </si>
-  <si>
-    <t>Department of Immunotechnology</t>
-  </si>
-  <si>
-    <t>First release</t>
-  </si>
-  <si>
-    <t>homo sapiens</t>
-  </si>
-  <si>
-    <t>IGH</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>Repertoire</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>BN000872.1</t>
-  </si>
-  <si>
     <t>coding_seq_imgt</t>
   </si>
   <si>
@@ -345,11 +204,14 @@
 case of a V-gene, with the IMGT numbering scheme</t>
   </si>
   <si>
+    <t>codon_frame</t>
+  </si>
+  <si>
     <t>Codon position of the first sequence symbol in
-coding_seq_imgt. Mandatory for J genes and V genes. Not used
-for D genes. ('1' means the sequence is in-frame, '2' means
-that the first bp is missing from the first codon, '3' means
-that the first 2 bp are missing)</t>
+coding_seq_imgt. Mandatory for J genes. Not used for V or D
+genes. ('1' means the sequence is in-frame, '2' means that
+the first bp is missing from the first codon, '3' means that
+the first 2 bp are missing)</t>
   </si>
   <si>
     <t>j_cdr3_end</t>
@@ -360,22 +222,193 @@
 PHE or TRP (IMGT codon position 118)</t>
   </si>
   <si>
+    <t>utr_5_prime_start</t>
+  </si>
+  <si>
+    <t>Start co-ordinate of 5 prime UTR</t>
+  </si>
+  <si>
+    <t>utr_5_prime_end</t>
+  </si>
+  <si>
+    <t>End co-ordinate of 5 prime UTR</t>
+  </si>
+  <si>
+    <t>l_region_start</t>
+  </si>
+  <si>
+    <t>Start co-ordinate of L region</t>
+  </si>
+  <si>
+    <t>l_region_end</t>
+  </si>
+  <si>
+    <t>End co-ordinate of L region</t>
+  </si>
+  <si>
+    <t>v_rs_start</t>
+  </si>
+  <si>
+    <t>Start co-ordinate of V recombination site (V-genes only)</t>
+  </si>
+  <si>
+    <t>v_rs_end</t>
+  </si>
+  <si>
+    <t>End co-ordinate of V recombination site (V-genes only)</t>
+  </si>
+  <si>
+    <t>d_rs_3_prime_start</t>
+  </si>
+  <si>
+    <t>Start co-ordinate of 3 prime D recombination site (D-genes
+only)</t>
+  </si>
+  <si>
+    <t>d_rs_3_prime_end</t>
+  </si>
+  <si>
+    <t>End co-ordinate of 3 prime D recombination site (D-genes
+only)</t>
+  </si>
+  <si>
+    <t>d_rs_5_prime_start</t>
+  </si>
+  <si>
+    <t>Start co-ordinate of 5 prime D recombination site (D-genes
+only)</t>
+  </si>
+  <si>
+    <t>d_rs_5_prime_end</t>
+  </si>
+  <si>
+    <t>End co-ordinate of 5 prime D recombination site (D-genes
+only)</t>
+  </si>
+  <si>
+    <t>j_rs_start</t>
+  </si>
+  <si>
+    <t>Start co-ordinate of J recombination site (J-genes only)</t>
+  </si>
+  <si>
+    <t>j_rs_end</t>
+  </si>
+  <si>
+    <t>End co-ordinate of J recombination site (J-genes only)</t>
+  </si>
+  <si>
+    <t>paralogs</t>
+  </si>
+  <si>
+    <t>Canonical names of 0 or more paralogs</t>
+  </si>
+  <si>
+    <t>observed_sequences</t>
+  </si>
+  <si>
+    <t>IDs of 0 or more Observed_Sequence records</t>
+  </si>
+  <si>
+    <t>genomic_sequences</t>
+  </si>
+  <si>
+    <t>IDs of 0 or more Genomic_Sequence records</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Acknowledgements</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>institution_name</t>
+  </si>
+  <si>
+    <t>ORCID_id</t>
+  </si>
+  <si>
+    <t>Explanation of fields</t>
+  </si>
+  <si>
+    <t>Full name of individual</t>
+  </si>
+  <si>
+    <t>Individual's department and institution name</t>
+  </si>
+  <si>
+    <t>Individual's ORCID Id, if available</t>
+  </si>
+  <si>
+    <t>Submissions</t>
+  </si>
+  <si>
+    <t>Please provide details of submissions providing evidence for
+the inferred sequence</t>
+  </si>
+  <si>
+    <t>Submission ID</t>
+  </si>
+  <si>
+    <t>Sequence ID (in submission)</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Please provide details of IARC meetings at which this allele
+was reviewed</t>
+  </si>
+  <si>
+    <t>Meeting Number</t>
+  </si>
+  <si>
+    <t>Amelia Seabright</t>
+  </si>
+  <si>
+    <t>Department of Immunotechnology</t>
+  </si>
+  <si>
+    <t>ABC University, Town, Country</t>
+  </si>
+  <si>
+    <t>First release</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>IGHV1-69D*01</t>
+  </si>
+  <si>
+    <t>IGH</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Repertoire</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>69D</t>
+  </si>
+  <si>
+    <t>caggtgcagctggtgcagtctggggctgaggtgaagaagcctgggtcctcggtgaaggtctcctgcaaggcttctggaggcaccttcagcagctatgctatcagctgggtgcgacaggcccctggacaagggcttgagtggatgggagggatcatccctatctttggtacagcaaactacgcacagaagttccagggcagagtcacgattaccgcggacgaatccacgagcacagcctacatggagctgagcagcctgagatctgaggacacggccgtgtattactgtgcgagaga</t>
+  </si>
+  <si>
     <t>caggtgcagctggtgcagtctggggct...gaggtgaagaagcctgggtcctcggtgaaggtctcctgcaaggcttctggaggcaccttc............agcagctatgctatcagctgggtgcgacaggcccctggacaagggcttgagtggatgggagggatcatccctatc......tttggtacagcaaactacgcacagaagttccag...ggcagagtcacgattaccgcggacgaatccacgagcacagcctacatggagctgagcagcctgagatctgaggacacggccgtgtattactgtgcgagaga</t>
   </si>
   <si>
-    <t>caggtgcagctggtgcagtctggggctgaggtgaagaagcctgggtcctcggtgaaggtctcctgcaaggcttctggaggcaccttcagcagctatgctatcagctgggtgcgacaggcccctggacaagggcttgagtggatgggagggatcatccctatctttggtacagcaaactacgcacagaagttccagggcagagtcacgattaccgcggacgaatccacgagcacagcctacatggagctgagcagcctgagatctgaggacacggccgtgtattactgtgcgagaga</t>
-  </si>
-  <si>
-    <t>IGHV1-69D*01</t>
-  </si>
-  <si>
-    <t>69D</t>
-  </si>
-  <si>
-    <t>Amelia Seabright</t>
-  </si>
-  <si>
-    <t>ABC University, Town, Country</t>
+    <t>BN000872.1</t>
   </si>
   <si>
     <r>
@@ -519,55 +552,31 @@
     </r>
   </si>
   <si>
+    <t>Mel Smyth</t>
+  </si>
+  <si>
+    <t>University of Kent</t>
+  </si>
+  <si>
+    <t>0000-0003-1912-3935</t>
+  </si>
+  <si>
+    <t>Griff Jones</t>
+  </si>
+  <si>
+    <t>RMIT University</t>
+  </si>
+  <si>
+    <t>Anthony Minghella</t>
+  </si>
+  <si>
+    <t>University of Texas MD Anderson Cancer Center</t>
+  </si>
+  <si>
     <t>IGHV1-69D*01_C231A</t>
   </si>
   <si>
     <t>IGHV1-69D*01_003</t>
-  </si>
-  <si>
-    <t>Acknowledgements</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>institution_name</t>
-  </si>
-  <si>
-    <t>ORCID_id</t>
-  </si>
-  <si>
-    <t>Explanation of fields</t>
-  </si>
-  <si>
-    <t>Full name of individual</t>
-  </si>
-  <si>
-    <t>Individual's department and institution name</t>
-  </si>
-  <si>
-    <t>Individual's ORCID Id, if available</t>
-  </si>
-  <si>
-    <t>Mel Smyth</t>
-  </si>
-  <si>
-    <t>University of Kent</t>
-  </si>
-  <si>
-    <t>Griff Jones</t>
-  </si>
-  <si>
-    <t>RMIT University</t>
-  </si>
-  <si>
-    <t>Anthony Minghella</t>
-  </si>
-  <si>
-    <t>University of Texas MD Anderson Cancer Center</t>
-  </si>
-  <si>
-    <t>0000-0003-1912-3935</t>
   </si>
 </sst>
 </file>
@@ -591,17 +600,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -697,6 +706,17 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -808,30 +828,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -839,19 +852,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,18 +1166,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D77"/>
+  <dimension ref="A3:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="97" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,636 +1196,646 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
-        <v>1.1000000000000001</v>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C11" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="7" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="24">
+        <v>43211</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9">
+        <v>25890375</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="7" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="21">
-        <v>43211</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="7">
-        <v>25890375</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="7" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="7" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="7" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="7" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1822,11 +1844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B8" sqref="B8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,88 +1860,88 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>85</v>
+      <c r="B5" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>87</v>
+      <c r="B7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+      <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>112</v>
+      <c r="C8" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+      <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>113</v>
+      <c r="C9" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1927,11 +1949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,62 +1967,62 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>89</v>
+      <c r="B5" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>90</v>
+      <c r="B8" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
+      <c r="B9" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
+      <c r="B10" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
+      <c r="B11" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
+      <c r="B12" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
+      <c r="B15" s="21"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
+      <c r="B16" s="22"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
+      <c r="B17" s="21"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
+      <c r="B18" s="21"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
+      <c r="B19" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
